--- a/TestData/New folder/TestCase.xlsx
+++ b/TestData/New folder/TestCase.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Learning/Luyen/nopcommerce-project/TestData/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Katalon\Project\nopCommerce\TestData\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA12B1-6A2B-F648-97EA-03BC31D66C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15780" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Order" sheetId="8" r:id="rId8"/>
     <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -939,43 +938,43 @@
 Confirm Password = 123456</t>
   </si>
   <si>
+    <t>1. Mở trang Address
+2. Nhấn nút “Edit”
+3. Nhấn nút “Save”</t>
+  </si>
+  <si>
+    <t>TC_Edit Address_01</t>
+  </si>
+  <si>
+    <t>TC_Edit Address_02</t>
+  </si>
+  <si>
+    <t>TC_Edit Address_03</t>
+  </si>
+  <si>
+    <t>TC_Edit Address_04</t>
+  </si>
+  <si>
     <t>First Name= Anh
 Last Name=Nguyen
-Email=xyz@gmail.com
+Email=luyen@gmail.com
 Country=Viet Nam
 City=HCM
 Address=Quan1
 Zipcode=12321
 Phone=0365483457</t>
   </si>
-  <si>
-    <t>1. Mở trang Address
-2. Nhấn nút “Edit”
-3. Nhấn nút “Save”</t>
-  </si>
-  <si>
-    <t>TC_Edit Address_01</t>
-  </si>
-  <si>
-    <t>TC_Edit Address_02</t>
-  </si>
-  <si>
-    <t>TC_Edit Address_03</t>
-  </si>
-  <si>
-    <t>TC_Edit Address_04</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,13 +1065,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1158,13 +1150,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF002E36"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -1176,6 +1161,46 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1334,7 +1359,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1387,148 +1412,193 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1548,25 +1618,58 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,31 +1678,16 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1882,30 +1970,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="18"/>
+    <col min="1" max="1" width="17.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1">
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
@@ -1917,68 +2005,68 @@
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="70"/>
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="72"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="74"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="1:8" ht="20.25">
+      <c r="C7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="48" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8" ht="20.25">
+      <c r="C8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="49">
         <f>COUNTA(A16:A25)</f>
         <v>10</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="49">
         <f>COUNTA(B16:B25)</f>
         <v>10</v>
       </c>
@@ -1986,29 +2074,29 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="50">
         <f>COUNTIF($F16:$F25,"Pass")</f>
         <v>9</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="50">
         <f>COUNTIF($G16:$G25,"Pass")</f>
         <v>9</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="1:8" ht="20.25">
+      <c r="C10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="50">
         <f>COUNTIF($F17:$F26,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="50">
         <f>COUNTIF($G17:$G26,"Fail")</f>
         <v>1</v>
       </c>
@@ -2016,29 +2104,29 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="50">
         <f>COUNTIF($F18:$F27,"Not Run")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="50">
         <f>COUNTIF($G18:$G27,"Not Run")</f>
         <v>0</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8" ht="20.25">
+      <c r="C12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="50">
         <f>COUNTIF($F19:$F28,"NA")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="50">
         <f>COUNTIF($G19:$G28,"NA")</f>
         <v>0</v>
       </c>
@@ -2053,283 +2141,283 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:8" ht="21">
+      <c r="A14" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="31" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="31" t="s">
+    <row r="15" spans="1:8" ht="21">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" ht="99.75" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:8" ht="126">
+      <c r="A16" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" ht="96.75" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="F16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="126">
+      <c r="A17" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="103.5" customHeight="1">
-      <c r="A18" s="37" t="s">
+      <c r="F17" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" ht="105">
+      <c r="A18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" ht="103.5" customHeight="1">
-      <c r="A19" s="37" t="s">
+      <c r="F18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="1:8" ht="105">
+      <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:8" ht="105.75" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" ht="105">
+      <c r="A20" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" ht="118.5" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="F20" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:8" ht="147">
+      <c r="A21" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" ht="117.75" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="F21" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" ht="126">
+      <c r="A22" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8" ht="120.75" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="F22" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="1:8" ht="147">
+      <c r="A23" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="F23" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" ht="147">
+      <c r="A24" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" ht="114.75" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="F24" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="1:8" ht="126">
+      <c r="A25" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="33"/>
+      <c r="F25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2346,189 +2434,210 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F16:G25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G25">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="6"/>
-    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17 16384:16384" ht="33" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17 16384:16384" ht="23.25">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1">
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="1:17 16384:16384" ht="20.25">
+      <c r="C3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="70"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1">
-      <c r="C4" s="23" t="s">
+    <row r="4" spans="1:17 16384:16384" ht="20.25">
+      <c r="C4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="21" customHeight="1">
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="1:17 16384:16384" ht="20.25">
+      <c r="C5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="72"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1">
-      <c r="C6" s="23" t="s">
+    <row r="6" spans="1:17 16384:16384" ht="20.25">
+      <c r="C6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="74"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="1:17 16384:16384" ht="20.25">
+      <c r="C7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="48" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:17 16384:16384" ht="20.25">
+      <c r="C8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="49">
         <f>COUNTA(A16:A21)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="49">
         <f>COUNTA(B16:B21)</f>
         <v>6</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1">
-      <c r="C9" s="23" t="s">
+      <c r="XFD8" s="6">
+        <f>SUM(D8:XFC8)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17 16384:16384" ht="20.25">
+      <c r="C9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="50">
         <f>COUNTIF($F16:$F21,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="50">
         <f>COUNTIF($G16:$G21,"Pass")</f>
         <v>5</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="19">
-      <c r="C10" s="23" t="s">
+      <c r="XFD9" s="6">
+        <f>SUM(D9:XFC9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17 16384:16384" ht="20.25">
+      <c r="C10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="50">
         <f>COUNTIF($F17:$F22,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="50">
         <f>COUNTIF($G17:$G22,"Fail")</f>
         <v>1</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="18" customHeight="1">
-      <c r="C11" s="23" t="s">
+      <c r="XFD10" s="6">
+        <f>SUM(D10:XFC10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17 16384:16384" ht="20.25">
+      <c r="C11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="50">
         <f>COUNTIF($F18:$F23,"Not Run")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="50">
         <f>COUNTIF($G18:$G23,"Not Run")</f>
         <v>0</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="19">
-      <c r="C12" s="23" t="s">
+      <c r="XFD11" s="6">
+        <f>SUM(D11:XFC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17 16384:16384" ht="20.25">
+      <c r="C12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="50">
         <f>COUNTIF($F19:$F24,"NA")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="50">
         <f>COUNTIF($G19:$G24,"NA")</f>
         <v>0</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="16">
+      <c r="XFD12" s="6">
+        <f>SUM(D12:XFC12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17 16384:16384">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2538,27 +2647,27 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:17 16384:16384" ht="21">
+      <c r="A14" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="31" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="51" t="s">
         <v>51</v>
       </c>
       <c r="I14" s="10"/>
@@ -2571,19 +2680,19 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="31" t="s">
+    <row r="15" spans="1:17 16384:16384" ht="21">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2594,29 +2703,29 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="94.5" customHeight="1">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:17 16384:16384" ht="117.75" customHeight="1">
+      <c r="A16" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="36"/>
+      <c r="F16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="56"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2627,29 +2736,29 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="87.75" customHeight="1">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:17" ht="111.75" customHeight="1">
+      <c r="A17" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2660,29 +2769,29 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="111" customHeight="1">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:17" ht="152.25" customHeight="1">
+      <c r="A18" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="33"/>
+      <c r="F18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="53"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2693,29 +2802,29 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="156" customHeight="1">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:17" ht="215.25" customHeight="1">
+      <c r="A19" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="33"/>
+      <c r="F19" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="53"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2726,29 +2835,29 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="150" customHeight="1">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:17" ht="176.25" customHeight="1">
+      <c r="A20" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="33"/>
+      <c r="F20" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="53"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2759,29 +2868,29 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="95.25" customHeight="1">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:17" ht="144" customHeight="1">
+      <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="33"/>
+      <c r="F21" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="53"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -3078,11 +3187,11 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F16:G21" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G21">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3092,34 +3201,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="6"/>
+    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17" ht="33.75" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17" ht="23.25">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -3130,10 +3239,10 @@
       <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="83"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -3141,10 +3250,10 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -3152,10 +3261,10 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="85"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -3163,14 +3272,14 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="72"/>
+      <c r="E6" s="87"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="17">
+    <row r="7" spans="1:17" ht="15.75">
       <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
@@ -3183,7 +3292,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="17">
+    <row r="8" spans="1:17" ht="15.75">
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3322,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="17">
+    <row r="10" spans="1:17" ht="15.75">
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,7 +3352,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="17">
+    <row r="12" spans="1:17" ht="15.75">
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3367,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3269,25 +3378,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -3302,11 +3411,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -3641,11 +3750,11 @@
     <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F16:G16" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G16">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3655,34 +3764,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="13.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17" ht="33.75" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17" ht="23.25">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -3693,10 +3802,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="89"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -3704,8 +3813,8 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -3713,10 +3822,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="91"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -3724,14 +3833,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="93"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
+    <row r="7" spans="1:17" ht="18">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -3744,7 +3853,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:17" ht="18">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3883,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="19">
+    <row r="10" spans="1:17" ht="18">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3913,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="19">
+    <row r="12" spans="1:17" ht="18">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -3819,7 +3928,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3830,25 +3939,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -3863,11 +3972,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -4218,11 +4327,11 @@
     <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F16:G17" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G17">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4232,36 +4341,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="6"/>
-    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="15.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="11.42578125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17" ht="36" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17" ht="23.25">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -4272,10 +4381,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="89"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -4283,8 +4392,8 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -4292,10 +4401,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="91"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -4303,14 +4412,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="93"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
+    <row r="7" spans="1:17" ht="18">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -4323,7 +4432,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:17" ht="18">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -4353,7 +4462,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="19">
+    <row r="10" spans="1:17" ht="18">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -4383,7 +4492,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="19">
+    <row r="12" spans="1:17" ht="18">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -4398,7 +4507,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4409,25 +4518,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -4442,11 +4551,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -4762,11 +4871,11 @@
     <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F16:G16" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G16">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4777,34 +4886,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A24" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17" ht="37.5" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17" ht="23.25">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -4815,10 +4924,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="89"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -4826,10 +4935,10 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="89"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -4837,10 +4946,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="91"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -4848,14 +4957,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="93"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
+    <row r="7" spans="1:17" ht="18">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -4868,7 +4977,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:17" ht="18">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +5007,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="19">
+    <row r="10" spans="1:17" ht="18">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -4928,7 +5037,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="19">
+    <row r="12" spans="1:17" ht="18">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -4943,7 +5052,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4954,25 +5063,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -4987,11 +5096,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -5010,16 +5119,16 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -5061,7 +5170,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="172.5" customHeight="1">
+    <row r="18" spans="1:17" ht="165.75" customHeight="1">
       <c r="A18" s="37" t="s">
         <v>103</v>
       </c>
@@ -5149,7 +5258,7 @@
       <c r="G20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -5160,17 +5269,17 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="19">
-      <c r="A21" s="76" t="s">
+    <row r="21" spans="1:17" ht="18.75">
+      <c r="A21" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -5183,13 +5292,13 @@
     </row>
     <row r="22" spans="1:17" ht="170.25" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>110</v>
@@ -5212,9 +5321,9 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="160">
+    <row r="23" spans="1:17" ht="159" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>114</v>
@@ -5236,9 +5345,9 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:17" ht="157" customHeight="1">
+    <row r="24" spans="1:17" ht="156.94999999999999" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>111</v>
@@ -5269,9 +5378,9 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="170.25" customHeight="1">
+    <row r="25" spans="1:17" ht="182.25" customHeight="1">
       <c r="A25" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>240</v>
@@ -5283,7 +5392,7 @@
         <v>121</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>12</v>
@@ -5303,16 +5412,16 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -5642,13 +5751,13 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F27:G27 F17:G20 F22:G25" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F27:G27 F17:G20 F22:G25">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5658,36 +5767,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="23.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -5698,10 +5807,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="89"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -5709,10 +5818,10 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="89"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -5720,10 +5829,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="91"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -5731,14 +5840,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="93"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
+    <row r="7" spans="1:17" ht="18">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -5751,7 +5860,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:17" ht="18">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -5781,7 +5890,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="19">
+    <row r="10" spans="1:17" ht="18">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -5811,7 +5920,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="19">
+    <row r="12" spans="1:17" ht="18">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -5826,7 +5935,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5837,25 +5946,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -5870,11 +5979,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -5893,16 +6002,16 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -5913,7 +6022,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="153.75" customHeight="1">
+    <row r="17" spans="1:17" ht="117.75" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>129</v>
       </c>
@@ -5933,7 +6042,7 @@
       <c r="G17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="54"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6074,17 +6183,17 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="19">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:17" ht="18.75">
+      <c r="A22" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6161,7 +6270,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="100">
+    <row r="25" spans="1:17" ht="112.5">
       <c r="A25" s="37" t="s">
         <v>142</v>
       </c>
@@ -6228,16 +6337,16 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -6568,11 +6677,11 @@
     <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F28:G28 F17:G21 F23:G26" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F28:G28 F17:G21 F23:G26">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6582,36 +6691,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="6"/>
-    <col min="8" max="8" width="10.6640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:17" ht="35.25" customHeight="1">
+      <c r="C1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23">
+    <row r="2" spans="1:17" ht="23.25">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -6622,10 +6731,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="89"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -6633,10 +6742,10 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="89"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -6644,10 +6753,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="91"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -6655,14 +6764,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="93"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
+    <row r="7" spans="1:17" ht="18">
       <c r="C7" s="23" t="s">
         <v>182</v>
       </c>
@@ -6675,7 +6784,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:17" ht="18">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -6705,7 +6814,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="19">
+    <row r="10" spans="1:17" ht="18">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -6735,7 +6844,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="19">
+    <row r="12" spans="1:17" ht="18">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -6750,7 +6859,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="16">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6761,25 +6870,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -6794,11 +6903,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -6817,16 +6926,16 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -6900,16 +7009,16 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="29.25" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -6979,16 +7088,16 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -7012,7 +7121,7 @@
       <c r="D23" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="39" t="s">
         <v>184</v>
       </c>
       <c r="F23" s="34" t="s">
@@ -7045,7 +7154,7 @@
       <c r="D24" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>188</v>
       </c>
       <c r="F24" s="34" t="s">
@@ -7078,7 +7187,7 @@
       <c r="D25" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="39" t="s">
         <v>208</v>
       </c>
       <c r="F25" s="34" t="s">
@@ -7111,7 +7220,7 @@
       <c r="D26" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="39" t="s">
         <v>207</v>
       </c>
       <c r="F26" s="34" t="s">
@@ -7144,7 +7253,7 @@
       <c r="D27" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="39" t="s">
         <v>231</v>
       </c>
       <c r="F27" s="34" t="s">
@@ -7177,7 +7286,7 @@
       <c r="D28" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="39" t="s">
         <v>220</v>
       </c>
       <c r="F28" s="34" t="s">
@@ -7198,16 +7307,16 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7231,7 +7340,7 @@
       <c r="D30" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="34" t="s">
         <v>12</v>
       </c>
@@ -7482,11 +7591,11 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F17:G18 F20:G21 F30:G30 F23:G28" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F17:G18 F20:G21 F30:G30 F23:G28">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7497,239 +7606,239 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="23">
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="2:7" ht="23.25">
+      <c r="B3" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="2:7" ht="20">
-      <c r="B5" s="45" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.75">
+      <c r="B5" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20">
-      <c r="B6" s="47">
+    <row r="6" spans="2:7" ht="18.75">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="49">
-        <v>20</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="62">
+        <v>9</v>
+      </c>
+      <c r="E6" s="62">
+        <v>1</v>
+      </c>
+      <c r="F6" s="62">
         <v>0</v>
       </c>
-      <c r="F6" s="49">
+      <c r="G6" s="62">
         <v>0</v>
       </c>
-      <c r="G6" s="49">
+    </row>
+    <row r="7" spans="2:7" ht="18.75">
+      <c r="B7" s="45">
+        <v>2</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="63">
+        <v>5</v>
+      </c>
+      <c r="E7" s="62">
+        <v>1</v>
+      </c>
+      <c r="F7" s="62">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="20">
-      <c r="B7" s="47">
+      <c r="G7" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18.75">
+      <c r="B8" s="45">
+        <v>3</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0</v>
+      </c>
+      <c r="F8" s="62">
+        <v>0</v>
+      </c>
+      <c r="G8" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.75">
+      <c r="B9" s="45">
+        <v>4</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="63">
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="50">
-        <v>10</v>
-      </c>
-      <c r="E7" s="49">
+      <c r="E9" s="62">
+        <v>0</v>
+      </c>
+      <c r="F9" s="62">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18.75">
+      <c r="B10" s="45">
+        <v>5</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="63">
+        <v>1</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0</v>
+      </c>
+      <c r="F10" s="62">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18.75">
+      <c r="B11" s="45">
+        <v>6</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="63">
+        <v>7</v>
+      </c>
+      <c r="E11" s="62">
         <v>2</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F11" s="62">
         <v>0</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G11" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="20">
-      <c r="B8" s="47">
+    <row r="12" spans="2:7" ht="18.75">
+      <c r="B12" s="45">
+        <v>7</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="63">
+        <v>7</v>
+      </c>
+      <c r="E12" s="62">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="50">
-        <v>2</v>
-      </c>
-      <c r="E8" s="49">
+      <c r="F12" s="62">
         <v>0</v>
       </c>
-      <c r="F8" s="49">
+      <c r="G12" s="62">
         <v>0</v>
       </c>
-      <c r="G8" s="49">
+    </row>
+    <row r="13" spans="2:7" ht="18.75">
+      <c r="B13" s="45">
+        <v>8</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="63">
+        <v>11</v>
+      </c>
+      <c r="E13" s="62">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="20">
-      <c r="B9" s="47">
-        <v>4</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="50">
-        <v>4</v>
-      </c>
-      <c r="E9" s="49">
+      <c r="F13" s="62">
         <v>0</v>
       </c>
-      <c r="F9" s="49">
+      <c r="G13" s="62">
         <v>0</v>
       </c>
-      <c r="G9" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="20">
-      <c r="B10" s="47">
-        <v>5</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="50">
-        <v>2</v>
-      </c>
-      <c r="E10" s="49">
-        <v>0</v>
-      </c>
-      <c r="F10" s="49">
-        <v>0</v>
-      </c>
-      <c r="G10" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="20">
-      <c r="B11" s="47">
-        <v>6</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="50">
-        <v>10</v>
-      </c>
-      <c r="E11" s="49">
-        <v>2</v>
-      </c>
-      <c r="F11" s="49">
-        <v>0</v>
-      </c>
-      <c r="G11" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="20">
-      <c r="B12" s="47">
+    </row>
+    <row r="14" spans="2:7" ht="18.75">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="66">
+        <f>SUM(D6:D13)</f>
+        <v>43</v>
+      </c>
+      <c r="E14" s="66">
+        <f t="shared" ref="E14:G14" si="0">SUM(E6:E13)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="50">
-        <v>14</v>
-      </c>
-      <c r="E12" s="49">
-        <v>6</v>
-      </c>
-      <c r="F12" s="49">
-        <v>0</v>
-      </c>
-      <c r="G12" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="20">
-      <c r="B13" s="47">
-        <v>8</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="50">
-        <v>22</v>
-      </c>
-      <c r="E13" s="49">
-        <v>0</v>
-      </c>
-      <c r="F13" s="49">
-        <v>0</v>
-      </c>
-      <c r="G13" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="19">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="53">
-        <f>SUM(D6:D13)</f>
-        <v>84</v>
-      </c>
-      <c r="E14" s="53">
-        <f t="shared" ref="E14:G14" si="0">SUM(E6:E13)</f>
-        <v>10</v>
-      </c>
-      <c r="F14" s="53">
+      <c r="F14" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/TestData/New folder/TestCase.xlsx
+++ b/TestData/New folder/TestCase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Katalon\Project\nopCommerce\TestData\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Learning/Luyen/untitled folder/nopcommerce-project/TestData/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C67B1E2-43C7-3A45-8485-B669097B5D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="15780" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Order" sheetId="8" r:id="rId8"/>
     <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -968,13 +969,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,6 +1203,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1487,15 +1501,6 @@
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,19 +1546,14 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1579,14 +1579,29 @@
     <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1594,30 +1609,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1680,14 +1671,37 @@
     </xf>
     <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="34" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1970,30 +1984,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A20" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="17.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
@@ -2005,68 +2019,68 @@
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="64"/>
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="66"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="74"/>
+      <c r="E6" s="68"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25">
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:8" ht="21">
+      <c r="C7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25">
-      <c r="C8" s="47" t="s">
+    <row r="8" spans="1:8" ht="21">
+      <c r="C8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <f>COUNTA(A16:A25)</f>
         <v>10</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="46">
         <f>COUNTA(B16:B25)</f>
         <v>10</v>
       </c>
@@ -2074,29 +2088,29 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1">
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="47">
         <f>COUNTIF($F16:$F25,"Pass")</f>
         <v>9</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="47">
         <f>COUNTIF($G16:$G25,"Pass")</f>
         <v>9</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25">
-      <c r="C10" s="47" t="s">
+    <row r="10" spans="1:8" ht="21">
+      <c r="C10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="47">
         <f>COUNTIF($F17:$F26,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="47">
         <f>COUNTIF($G17:$G26,"Fail")</f>
         <v>1</v>
       </c>
@@ -2104,29 +2118,29 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <f>COUNTIF($F18:$F27,"Not Run")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <f>COUNTIF($G18:$G27,"Not Run")</f>
         <v>0</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25">
-      <c r="C12" s="47" t="s">
+    <row r="12" spans="1:8" ht="21">
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <f>COUNTIF($F19:$F28,"NA")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="47">
         <f>COUNTIF($G19:$G28,"NA")</f>
         <v>0</v>
       </c>
@@ -2141,304 +2155,304 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="21">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:8" ht="22">
+      <c r="A14" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="51" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="51" t="s">
+    <row r="15" spans="1:8" ht="22">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:8" ht="126">
-      <c r="A16" s="57" t="s">
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" ht="110">
+      <c r="A16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" ht="126">
-      <c r="A17" s="57" t="s">
+      <c r="F16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" ht="110">
+      <c r="A17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" ht="105">
-      <c r="A18" s="57" t="s">
+      <c r="F17" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="110">
+      <c r="A18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="53"/>
-    </row>
-    <row r="19" spans="1:8" ht="105">
-      <c r="A19" s="57" t="s">
+      <c r="F18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="110">
+      <c r="A19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="53"/>
-    </row>
-    <row r="20" spans="1:8" ht="105">
-      <c r="A20" s="57" t="s">
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="1:8" ht="110">
+      <c r="A20" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21" spans="1:8" ht="147">
-      <c r="A21" s="57" t="s">
+      <c r="F20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="154">
+      <c r="A21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="22" spans="1:8" ht="126">
-      <c r="A22" s="57" t="s">
+      <c r="F21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="1:8" ht="132">
+      <c r="A22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="1:8" ht="147">
-      <c r="A23" s="57" t="s">
+      <c r="F22" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="132">
+      <c r="A23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" spans="1:8" ht="147">
-      <c r="A24" s="57" t="s">
+      <c r="F23" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="1:8" ht="132">
+      <c r="A24" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" spans="1:8" ht="126">
-      <c r="A25" s="57" t="s">
+      <c r="F24" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="1:8" ht="132">
+      <c r="A25" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="53"/>
+      <c r="F25" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F16:G25">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2449,108 +2463,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD40"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="16.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17 16384:16384" ht="33" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17 16384:16384" ht="23.25">
+    <row r="2" spans="1:17 16384:16384" ht="23">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:17 16384:16384" ht="20.25">
-      <c r="C3" s="47" t="s">
+    <row r="3" spans="1:17 16384:16384" ht="21">
+      <c r="C3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="64"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:17 16384:16384" ht="20.25">
-      <c r="C4" s="47" t="s">
+    <row r="4" spans="1:17 16384:16384" ht="21">
+      <c r="C4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="70"/>
+      <c r="E4" s="64"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:17 16384:16384" ht="20.25">
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="1:17 16384:16384" ht="21">
+      <c r="C5" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="66"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:17 16384:16384" ht="20.25">
-      <c r="C6" s="47" t="s">
+    <row r="6" spans="1:17 16384:16384" ht="21">
+      <c r="C6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="74"/>
+      <c r="E6" s="68"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17 16384:16384" ht="20.25">
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:17 16384:16384" ht="21">
+      <c r="C7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17 16384:16384" ht="20.25">
-      <c r="C8" s="47" t="s">
+    <row r="8" spans="1:17 16384:16384" ht="21">
+      <c r="C8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <f>COUNTA(A16:A21)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="46">
         <f>COUNTA(B16:B21)</f>
         <v>6</v>
       </c>
@@ -2561,15 +2575,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17 16384:16384" ht="20.25">
-      <c r="C9" s="47" t="s">
+    <row r="9" spans="1:17 16384:16384" ht="21">
+      <c r="C9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="47">
         <f>COUNTIF($F16:$F21,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="47">
         <f>COUNTIF($G16:$G21,"Pass")</f>
         <v>5</v>
       </c>
@@ -2580,15 +2594,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17 16384:16384" ht="20.25">
-      <c r="C10" s="47" t="s">
+    <row r="10" spans="1:17 16384:16384" ht="21">
+      <c r="C10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="47">
         <f>COUNTIF($F17:$F22,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="47">
         <f>COUNTIF($G17:$G22,"Fail")</f>
         <v>1</v>
       </c>
@@ -2599,15 +2613,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17 16384:16384" ht="20.25">
-      <c r="C11" s="47" t="s">
+    <row r="11" spans="1:17 16384:16384" ht="21">
+      <c r="C11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <f>COUNTIF($F18:$F23,"Not Run")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <f>COUNTIF($G18:$G23,"Not Run")</f>
         <v>0</v>
       </c>
@@ -2618,15 +2632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17 16384:16384" ht="20.25">
-      <c r="C12" s="47" t="s">
+    <row r="12" spans="1:17 16384:16384" ht="21">
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <f>COUNTIF($F19:$F24,"NA")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="47">
         <f>COUNTIF($G19:$G24,"NA")</f>
         <v>0</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17 16384:16384">
+    <row r="13" spans="1:17 16384:16384" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2647,27 +2661,27 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:17 16384:16384" ht="21">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:17 16384:16384" ht="22">
+      <c r="A14" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="51" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="48" t="s">
         <v>51</v>
       </c>
       <c r="I14" s="10"/>
@@ -2680,19 +2694,19 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17 16384:16384" ht="21">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="51" t="s">
+    <row r="15" spans="1:17 16384:16384" ht="22">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2704,28 +2718,28 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17 16384:16384" ht="117.75" customHeight="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="56"/>
+      <c r="F16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="53"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2737,28 +2751,28 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" ht="111.75" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="53"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2770,28 +2784,28 @@
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="152.25" customHeight="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="53"/>
+      <c r="F18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="50"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2803,28 +2817,28 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="215.25" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="53"/>
+      <c r="F19" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="50"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2836,28 +2850,28 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="176.25" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="53"/>
+      <c r="F20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="50"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2869,28 +2883,28 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="144" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="53"/>
+      <c r="F21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="50"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -3187,11 +3201,11 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F16:G21">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G21" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3201,34 +3215,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="20.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25">
+    <row r="2" spans="1:17" ht="23">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -3239,10 +3253,10 @@
       <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="72"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -3250,10 +3264,10 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -3261,10 +3275,10 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="74"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -3272,14 +3286,14 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="76"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75">
+    <row r="7" spans="1:17" ht="17">
       <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
@@ -3292,7 +3306,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
+    <row r="8" spans="1:17" ht="17">
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3336,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75">
+    <row r="10" spans="1:17" ht="17">
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3366,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
+    <row r="12" spans="1:17" ht="17">
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
@@ -3367,7 +3381,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3378,25 +3392,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -3411,11 +3425,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -3737,24 +3751,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F16:G16">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G16" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3764,34 +3778,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25">
+    <row r="2" spans="1:17" ht="23">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -3802,10 +3816,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="80"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -3813,8 +3827,8 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -3822,10 +3836,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="82"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -3833,14 +3847,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="84"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="19">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -3853,7 +3867,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:17" ht="19">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -3883,7 +3897,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:17" ht="19">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -3913,7 +3927,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:17" ht="19">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3942,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3939,25 +3953,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -3972,11 +3986,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -4314,24 +4328,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F16:G17">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G17" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4341,36 +4355,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="11.42578125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="12.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="6"/>
+    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="36" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25">
+    <row r="2" spans="1:17" ht="23">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -4381,10 +4395,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="80"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -4392,8 +4406,8 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -4401,10 +4415,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="82"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -4412,14 +4426,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="84"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="19">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -4432,7 +4446,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:17" ht="19">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -4462,7 +4476,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:17" ht="19">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4506,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:17" ht="19">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -4507,7 +4521,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4518,25 +4532,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -4551,11 +4565,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -4858,24 +4872,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="G15 F14:F15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F16:G16">
+    <dataValidation type="list" allowBlank="1" sqref="F16:G16" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4886,34 +4900,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="20.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="37.5" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25">
+    <row r="2" spans="1:17" ht="23">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -4924,10 +4938,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="80"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -4935,10 +4949,10 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="80"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -4946,10 +4960,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="82"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -4957,14 +4971,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="84"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="19">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -4977,7 +4991,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:17" ht="19">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -5007,7 +5021,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:17" ht="19">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -5037,7 +5051,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:17" ht="19">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -5052,7 +5066,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5063,25 +5077,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -5096,11 +5110,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -5119,16 +5133,16 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -5269,17 +5283,17 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="18.75">
-      <c r="A21" s="97" t="s">
+    <row r="21" spans="1:17" ht="19">
+      <c r="A21" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -5345,7 +5359,7 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:17" ht="156.94999999999999" customHeight="1">
+    <row r="24" spans="1:17" ht="157" customHeight="1">
       <c r="A24" s="37" t="s">
         <v>256</v>
       </c>
@@ -5412,16 +5426,16 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="102"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -5753,11 +5767,11 @@
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F27:G27 F17:G20 F22:G25">
+    <dataValidation type="list" allowBlank="1" sqref="F27:G27 F17:G20 F22:G25" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5767,32 +5781,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="23.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5807,10 +5821,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="80"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -5818,10 +5832,10 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="80"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -5829,10 +5843,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="82"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -5840,14 +5854,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="84"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="19">
       <c r="C7" s="23" t="s">
         <v>50</v>
       </c>
@@ -5860,7 +5874,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:17" ht="19">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -5890,7 +5904,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:17" ht="19">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -5920,7 +5934,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:17" ht="19">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -5935,7 +5949,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5946,25 +5960,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -5979,11 +5993,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -6002,16 +6016,16 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -6042,7 +6056,7 @@
       <c r="G17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -6183,17 +6197,17 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="18.75">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:17" ht="19">
+      <c r="A22" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -6270,7 +6284,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="112.5">
+    <row r="25" spans="1:17" ht="100">
       <c r="A25" s="37" t="s">
         <v>142</v>
       </c>
@@ -6337,16 +6351,16 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="102"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -6677,11 +6691,11 @@
     <mergeCell ref="E14:E15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F28:G28 F17:G21 F23:G26">
+    <dataValidation type="list" allowBlank="1" sqref="F28:G28 F17:G21 F23:G26" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6691,36 +6705,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="20.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.25" customHeight="1">
-      <c r="C1" s="75" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
+      <c r="C1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25">
+    <row r="2" spans="1:17" ht="12" customHeight="1">
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -6731,10 +6745,10 @@
       <c r="C3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="80"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
@@ -6742,10 +6756,10 @@
       <c r="C4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="80"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
@@ -6753,10 +6767,10 @@
       <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="82"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
@@ -6764,14 +6778,14 @@
       <c r="C6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="84"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="18">
+    <row r="7" spans="1:17" ht="19">
       <c r="C7" s="23" t="s">
         <v>182</v>
       </c>
@@ -6784,7 +6798,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:17" ht="19">
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
@@ -6814,7 +6828,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:17" ht="19">
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
@@ -6844,7 +6858,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:17" ht="19">
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
@@ -6859,7 +6873,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="16">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6870,25 +6884,25 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="21" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="31" t="s">
         <v>51</v>
       </c>
@@ -6903,11 +6917,11 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="31" t="s">
         <v>7</v>
       </c>
@@ -6926,16 +6940,16 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -6946,7 +6960,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="105" customHeight="1">
+    <row r="17" spans="1:17" ht="97" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>165</v>
       </c>
@@ -6977,7 +6991,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="68.25" customHeight="1">
+    <row r="18" spans="1:17" ht="64" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>170</v>
       </c>
@@ -7009,16 +7023,16 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="29.25" customHeight="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -7029,7 +7043,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="76.5" customHeight="1">
+    <row r="20" spans="1:17" ht="61" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>171</v>
       </c>
@@ -7058,7 +7072,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="76.5" customHeight="1">
+    <row r="21" spans="1:17" ht="54" customHeight="1">
       <c r="A21" s="32" t="s">
         <v>172</v>
       </c>
@@ -7088,16 +7102,16 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -7108,7 +7122,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="102" customHeight="1">
+    <row r="23" spans="1:17" ht="84" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>176</v>
       </c>
@@ -7141,7 +7155,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="108.75" customHeight="1">
+    <row r="24" spans="1:17" ht="81" customHeight="1">
       <c r="A24" s="32" t="s">
         <v>177</v>
       </c>
@@ -7174,7 +7188,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="123.75" customHeight="1">
+    <row r="25" spans="1:17" ht="92" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>178</v>
       </c>
@@ -7207,7 +7221,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="98.25" customHeight="1">
+    <row r="26" spans="1:17" ht="83" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>179</v>
       </c>
@@ -7240,7 +7254,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="129.75" customHeight="1">
+    <row r="27" spans="1:17" ht="90" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>221</v>
       </c>
@@ -7273,7 +7287,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="98.25" customHeight="1">
+    <row r="28" spans="1:17" ht="80" customHeight="1">
       <c r="A28" s="32" t="s">
         <v>222</v>
       </c>
@@ -7307,16 +7321,16 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -7327,7 +7341,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" spans="1:17" ht="312" customHeight="1">
+    <row r="30" spans="1:17" ht="299" customHeight="1">
       <c r="A30" s="32" t="s">
         <v>225</v>
       </c>
@@ -7574,6 +7588,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A22:H22"/>
@@ -7584,18 +7603,13 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F17:G18 F20:G21 F30:G30 F23:G28">
+    <dataValidation type="list" allowBlank="1" sqref="F17:G18 F20:G21 F30:G30 F23:G28" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$A$10:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F14:F15 G15" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7606,32 +7620,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="23.25">
-      <c r="B3" s="108" t="s">
+    <row r="3" spans="2:7" ht="23">
+      <c r="B3" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="40"/>
@@ -7641,204 +7655,204 @@
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75">
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="2:7" ht="25">
+      <c r="B5" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="101" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="101" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18.75">
-      <c r="B6" s="45">
+    <row r="6" spans="2:7" ht="25">
+      <c r="B6" s="102">
         <v>1</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="104">
         <v>9</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="104">
         <v>1</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="104">
         <v>0</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.75">
-      <c r="B7" s="45">
+    <row r="7" spans="2:7" ht="25">
+      <c r="B7" s="102">
         <v>2</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="105">
         <v>5</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="104">
         <v>1</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="104">
         <v>0</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="18.75">
-      <c r="B8" s="45">
+    <row r="8" spans="2:7" ht="25">
+      <c r="B8" s="102">
         <v>3</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="105">
         <v>1</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="104">
         <v>0</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="104">
         <v>0</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
-      <c r="B9" s="45">
+    <row r="9" spans="2:7" ht="25">
+      <c r="B9" s="102">
         <v>4</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="105">
         <v>2</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="104">
         <v>0</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="104">
         <v>0</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18.75">
-      <c r="B10" s="45">
+    <row r="10" spans="2:7" ht="50">
+      <c r="B10" s="102">
         <v>5</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="105">
         <v>1</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="104">
         <v>0</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="104">
         <v>0</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18.75">
-      <c r="B11" s="45">
+    <row r="11" spans="2:7" ht="25">
+      <c r="B11" s="102">
         <v>6</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="105">
         <v>7</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="104">
         <v>2</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="104">
         <v>0</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18.75">
-      <c r="B12" s="45">
+    <row r="12" spans="2:7" ht="25">
+      <c r="B12" s="102">
         <v>7</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="105">
         <v>7</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="104">
         <v>3</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="104">
         <v>0</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18.75">
-      <c r="B13" s="45">
+    <row r="13" spans="2:7" ht="25">
+      <c r="B13" s="102">
         <v>8</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="105">
         <v>11</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="104">
         <v>0</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="104">
         <v>0</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="18.75">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65" t="s">
+    <row r="14" spans="2:7" ht="24">
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="108">
         <f>SUM(D6:D13)</f>
         <v>43</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="108">
         <f t="shared" ref="E14:G14" si="0">SUM(E6:E13)</f>
         <v>7</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
